--- a/11-CollaborationList/Manchester.xlsx
+++ b/11-CollaborationList/Manchester.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304626E4-BAF7-4D40-A235-53265752A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC248B28-E688-3741-893D-FE01D8058F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Imperial" sheetId="1" r:id="rId1"/>
+    <sheet name="Manchester" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -88,9 +88,6 @@
     <t>K.J.</t>
   </si>
   <si>
-    <t>Karen.kirkby@manchester.ac.uk</t>
-  </si>
-  <si>
     <t>Karen J Kirkby</t>
   </si>
   <si>
@@ -103,21 +100,6 @@
     <t xml:space="preserve"> Deputy Director MAHSE (HSST), </t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Merchant</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>michael.merchant@MANCHESTER.AC.UK</t>
-  </si>
-  <si>
-    <t>M. Merchant</t>
-  </si>
-  <si>
     <t>Manchester-BioMed</t>
   </si>
   <si>
@@ -170,6 +152,9 @@
   </si>
   <si>
     <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, The Cristie NHS Foundation Trust, Wimslow Rd, Manchester, M20 4BX, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen.kirkby@manchester.ac.uk; karen.kirkby@ics.manchester.ac.uk </t>
   </si>
 </sst>
 </file>
@@ -714,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P5" totalsRowShown="0">
-  <autoFilter ref="A1:P5" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
+  <autoFilter ref="A1:P4" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{FD39909D-050E-1147-B84A-EAE5260274A2}" name="Title"/>
     <tableColumn id="2" xr3:uid="{7A9B98C2-9D8E-EC40-86C1-C916EC7E033F}" name="Name"/>
@@ -1055,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E36F7E-01C1-C645-A567-F4934604AE01}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,31 +1130,31 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1195,89 +1180,60 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/Manchester.xlsx
+++ b/11-CollaborationList/Manchester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC248B28-E688-3741-893D-FE01D8058F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB02AAC-72EB-7244-83D5-7958395850D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="51200" windowHeight="16220" xr2:uid="{357B292A-9DBC-8E40-8885-53E55CE918E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Manchester" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -79,30 +79,6 @@
     <t xml:space="preserve">Prof. </t>
   </si>
   <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Kirkby</t>
-  </si>
-  <si>
-    <t>K.J.</t>
-  </si>
-  <si>
-    <t>Karen J Kirkby</t>
-  </si>
-  <si>
-    <t>Chrst-NHS</t>
-  </si>
-  <si>
-    <t>Christie NHS Foundation Trust, Wilmslow Rd, Manchester, M20 4BX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deputy Director MAHSE (HSST), </t>
-  </si>
-  <si>
-    <t>Manchester-BioMed</t>
-  </si>
-  <si>
     <t>William</t>
   </si>
   <si>
@@ -149,12 +125,6 @@
   </si>
   <si>
     <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
-  </si>
-  <si>
-    <t>Division of Cancer Sciences, Faculty of Biology, Medicine and Health, The University of Manchester, The Christie Proton Therapy Centre, The Cristie NHS Foundation Trust, Wimslow Rd, Manchester, M20 4BX, UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen.kirkby@manchester.ac.uk; karen.kirkby@ics.manchester.ac.uk </t>
   </si>
 </sst>
 </file>
@@ -699,8 +669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
-  <autoFilter ref="A1:P4" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
+  <autoFilter ref="A1:P3" xr:uid="{91B5DF46-E1BA-6145-AEA1-4669BDA36D9F}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{FD39909D-050E-1147-B84A-EAE5260274A2}" name="Title"/>
     <tableColumn id="2" xr3:uid="{7A9B98C2-9D8E-EC40-86C1-C916EC7E033F}" name="Name"/>
@@ -1040,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E36F7E-01C1-C645-A567-F4934604AE01}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1088,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1130,110 +1100,69 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
